--- a/Proyecto/Libro1.xlsx
+++ b/Proyecto/Libro1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\b\Documents\cursofullstak\React Nivel Avanzado\proyectos\Proyecto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC4C0DEE-C1FA-431D-B143-A3FC7B3A111F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76547484-2FBC-43D1-A228-AEC87966F718}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4953204E-A5D6-4224-B44B-CEC287B7B71E}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{4953204E-A5D6-4224-B44B-CEC287B7B71E}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,12 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>operación</t>
-  </si>
-  <si>
-    <t>CE</t>
   </si>
   <si>
     <t>C</t>
@@ -62,12 +59,6 @@
     <t>/</t>
   </si>
   <si>
-    <t>(</t>
-  </si>
-  <si>
-    <t>)</t>
-  </si>
-  <si>
     <t>=</t>
   </si>
   <si>
@@ -76,12 +67,18 @@
   <si>
     <t>Ir a calculadora</t>
   </si>
+  <si>
+    <t>.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+  </numFmts>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -108,6 +105,14 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFD191FD"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -439,23 +444,23 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -468,11 +473,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -482,29 +485,7 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -537,15 +518,40 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -869,7 +875,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+      <selection sqref="A1:D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -881,29 +887,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="9"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="20"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="24" t="s">
-        <v>7</v>
-      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="25">
+      <c r="A3" s="15">
         <v>1</v>
       </c>
       <c r="B3" s="1">
@@ -912,12 +918,12 @@
       <c r="C3" s="1">
         <v>3</v>
       </c>
-      <c r="D3" s="26">
+      <c r="D3" s="16">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="25">
+      <c r="A4" s="15">
         <v>5</v>
       </c>
       <c r="B4" s="1">
@@ -926,109 +932,107 @@
       <c r="C4" s="1">
         <v>7</v>
       </c>
-      <c r="D4" s="26">
+      <c r="D4" s="16">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="27">
+      <c r="A5" s="17">
         <v>9</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="33">
         <v>0</v>
       </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="28"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="25"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="29" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="30" t="s">
+      <c r="B6" s="30"/>
+      <c r="C6" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="32"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="27"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="28"/>
+    </row>
+    <row r="8" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="21" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="14"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="32"/>
-    </row>
-    <row r="8" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="12"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="23"/>
     </row>
     <row r="9" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="17"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="18"/>
+      <c r="A10" s="7"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="8"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="19"/>
-      <c r="B11" s="15"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="20"/>
+      <c r="A11" s="9"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="10"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="19"/>
-      <c r="B12" s="15"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="20"/>
+      <c r="A12" s="9"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="10"/>
     </row>
     <row r="13" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="19"/>
-      <c r="B13" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="15"/>
-      <c r="D13" s="20"/>
+      <c r="A13" s="9"/>
+      <c r="B13" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="5"/>
+      <c r="D13" s="10"/>
     </row>
     <row r="14" spans="1:4" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="19"/>
-      <c r="B14" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="15"/>
-      <c r="D14" s="20"/>
+      <c r="A14" s="9"/>
+      <c r="B14" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="5"/>
+      <c r="D14" s="10"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="19"/>
-      <c r="B15" s="15"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="20"/>
+      <c r="A15" s="9"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="10"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="19"/>
-      <c r="B16" s="15"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="20"/>
+      <c r="A16" s="9"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="10"/>
     </row>
     <row r="17" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="21"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="22"/>
+      <c r="A17" s="11"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="6">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A8:D8"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
